--- a/Elenco-Comuni-Aree-Interne-1.1.2020.xlsx
+++ b/Elenco-Comuni-Aree-Interne-1.1.2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilofar\Desktop\Internal Cities in Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilofar\Desktop\Foggia-Bridge-ENEA\Inner cities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A47129-8473-4E5E-868F-6BD2A96F43A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF1A18B-7AEC-4DFB-AC89-07FB538CA916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7638,12 +7638,6 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="36" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7655,6 +7649,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -7984,8 +7984,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B763" sqref="B763"/>
+    <sheetView tabSelected="1" topLeftCell="A783" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B809" sqref="B809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8003,18 +8003,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>2272</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -30848,63 +30848,63 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="763" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A763" s="19" t="s">
+    <row r="763" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A763" s="17" t="s">
         <v>2273</v>
       </c>
-      <c r="B763" s="20" t="s">
+      <c r="B763" s="18" t="s">
         <v>1619</v>
       </c>
-      <c r="C763" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D763" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E763" s="20" t="s">
+      <c r="C763" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D763" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E763" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F763" s="20" t="s">
+      <c r="F763" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G763" s="20"/>
-      <c r="H763" s="20" t="s">
+      <c r="G763" s="18"/>
+      <c r="H763" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I763" s="21">
+      <c r="I763" s="19">
         <v>30.7364</v>
       </c>
-      <c r="J763" s="22">
+      <c r="J763" s="20">
         <v>2277</v>
       </c>
     </row>
-    <row r="764" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A764" s="19" t="s">
+    <row r="764" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A764" s="17" t="s">
         <v>1623</v>
       </c>
-      <c r="B764" s="20" t="s">
+      <c r="B764" s="18" t="s">
         <v>1624</v>
       </c>
-      <c r="C764" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D764" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E764" s="20" t="s">
+      <c r="C764" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D764" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E764" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F764" s="20" t="s">
+      <c r="F764" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G764" s="20"/>
-      <c r="H764" s="20" t="s">
+      <c r="G764" s="18"/>
+      <c r="H764" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I764" s="21">
+      <c r="I764" s="19">
         <v>49.7502</v>
       </c>
-      <c r="J764" s="22">
+      <c r="J764" s="20">
         <v>902</v>
       </c>
     </row>
@@ -30968,33 +30968,33 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="767" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A767" s="19" t="s">
+    <row r="767" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A767" s="17" t="s">
         <v>1631</v>
       </c>
-      <c r="B767" s="20" t="s">
+      <c r="B767" s="18" t="s">
         <v>1632</v>
       </c>
-      <c r="C767" s="20" t="s">
+      <c r="C767" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D767" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E767" s="20" t="s">
+      <c r="D767" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E767" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F767" s="20" t="s">
+      <c r="F767" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G767" s="20"/>
-      <c r="H767" s="20" t="s">
+      <c r="G767" s="18"/>
+      <c r="H767" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I767" s="21">
+      <c r="I767" s="19">
         <v>336.68470000000002</v>
       </c>
-      <c r="J767" s="22">
+      <c r="J767" s="20">
         <v>6102</v>
       </c>
     </row>
@@ -31058,63 +31058,63 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="770" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A770" s="19" t="s">
+    <row r="770" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A770" s="17" t="s">
         <v>1637</v>
       </c>
-      <c r="B770" s="20" t="s">
+      <c r="B770" s="18" t="s">
         <v>1638</v>
       </c>
-      <c r="C770" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D770" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E770" s="20" t="s">
+      <c r="C770" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D770" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E770" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F770" s="20" t="s">
+      <c r="F770" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G770" s="20"/>
-      <c r="H770" s="20" t="s">
+      <c r="G770" s="18"/>
+      <c r="H770" s="18" t="s">
         <v>1639</v>
       </c>
-      <c r="I770" s="21">
+      <c r="I770" s="19">
         <v>166.83930000000001</v>
       </c>
-      <c r="J770" s="22">
+      <c r="J770" s="20">
         <v>6994</v>
       </c>
     </row>
-    <row r="771" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A771" s="19" t="s">
+    <row r="771" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A771" s="17" t="s">
         <v>1640</v>
       </c>
-      <c r="B771" s="20" t="s">
+      <c r="B771" s="18" t="s">
         <v>1641</v>
       </c>
-      <c r="C771" s="20" t="s">
+      <c r="C771" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D771" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E771" s="20" t="s">
+      <c r="D771" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E771" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F771" s="20" t="s">
+      <c r="F771" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G771" s="20"/>
-      <c r="H771" s="20" t="s">
+      <c r="G771" s="18"/>
+      <c r="H771" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I771" s="21">
+      <c r="I771" s="19">
         <v>96.815600000000003</v>
       </c>
-      <c r="J771" s="22">
+      <c r="J771" s="20">
         <v>2732</v>
       </c>
     </row>
@@ -31148,33 +31148,33 @@
         <v>916</v>
       </c>
     </row>
-    <row r="773" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A773" s="19" t="s">
+    <row r="773" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A773" s="17" t="s">
         <v>1644</v>
       </c>
-      <c r="B773" s="20" t="s">
+      <c r="B773" s="18" t="s">
         <v>1645</v>
       </c>
-      <c r="C773" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D773" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E773" s="20" t="s">
+      <c r="C773" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D773" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E773" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F773" s="20" t="s">
+      <c r="F773" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G773" s="20"/>
-      <c r="H773" s="20" t="s">
+      <c r="G773" s="18"/>
+      <c r="H773" s="18" t="s">
         <v>1639</v>
       </c>
-      <c r="I773" s="21">
+      <c r="I773" s="19">
         <v>80.050700000000006</v>
       </c>
-      <c r="J773" s="22">
+      <c r="J773" s="20">
         <v>4008</v>
       </c>
     </row>
@@ -31238,33 +31238,33 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="776" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A776" s="19" t="s">
+    <row r="776" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A776" s="17" t="s">
         <v>1650</v>
       </c>
-      <c r="B776" s="20" t="s">
+      <c r="B776" s="18" t="s">
         <v>1651</v>
       </c>
-      <c r="C776" s="20" t="s">
+      <c r="C776" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D776" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E776" s="20" t="s">
+      <c r="D776" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E776" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F776" s="20" t="s">
+      <c r="F776" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G776" s="20"/>
-      <c r="H776" s="20" t="s">
+      <c r="G776" s="18"/>
+      <c r="H776" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I776" s="21">
+      <c r="I776" s="19">
         <v>51.474499999999999</v>
       </c>
-      <c r="J776" s="22">
+      <c r="J776" s="20">
         <v>2097</v>
       </c>
     </row>
@@ -31298,33 +31298,33 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="778" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A778" s="19" t="s">
+    <row r="778" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A778" s="17" t="s">
         <v>1654</v>
       </c>
-      <c r="B778" s="20" t="s">
+      <c r="B778" s="18" t="s">
         <v>1655</v>
       </c>
-      <c r="C778" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D778" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E778" s="20" t="s">
+      <c r="C778" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D778" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E778" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F778" s="20" t="s">
+      <c r="F778" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G778" s="20"/>
-      <c r="H778" s="20" t="s">
+      <c r="G778" s="18"/>
+      <c r="H778" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I778" s="21">
+      <c r="I778" s="19">
         <v>61.488399999999999</v>
       </c>
-      <c r="J778" s="22">
+      <c r="J778" s="20">
         <v>1359</v>
       </c>
     </row>
@@ -31358,33 +31358,33 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="780" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A780" s="19" t="s">
+    <row r="780" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A780" s="17" t="s">
         <v>1658</v>
       </c>
-      <c r="B780" s="20" t="s">
+      <c r="B780" s="18" t="s">
         <v>1659</v>
       </c>
-      <c r="C780" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D780" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E780" s="20" t="s">
+      <c r="C780" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D780" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E780" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F780" s="20" t="s">
+      <c r="F780" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G780" s="20"/>
-      <c r="H780" s="20" t="s">
+      <c r="G780" s="18"/>
+      <c r="H780" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I780" s="21">
+      <c r="I780" s="19">
         <v>65.421499999999995</v>
       </c>
-      <c r="J780" s="22">
+      <c r="J780" s="20">
         <v>1485</v>
       </c>
     </row>
@@ -31448,33 +31448,33 @@
         <v>5327</v>
       </c>
     </row>
-    <row r="783" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A783" s="19" t="s">
+    <row r="783" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A783" s="17" t="s">
         <v>1664</v>
       </c>
-      <c r="B783" s="20" t="s">
+      <c r="B783" s="18" t="s">
         <v>1665</v>
       </c>
-      <c r="C783" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D783" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E783" s="20" t="s">
+      <c r="C783" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D783" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E783" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F783" s="20" t="s">
+      <c r="F783" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G783" s="20"/>
-      <c r="H783" s="20" t="s">
+      <c r="G783" s="18"/>
+      <c r="H783" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I783" s="21">
+      <c r="I783" s="19">
         <v>75.853399999999993</v>
       </c>
-      <c r="J783" s="22">
+      <c r="J783" s="20">
         <v>3671</v>
       </c>
     </row>
@@ -31538,33 +31538,33 @@
         <v>5075</v>
       </c>
     </row>
-    <row r="786" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A786" s="19" t="s">
+    <row r="786" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A786" s="17" t="s">
         <v>1670</v>
       </c>
-      <c r="B786" s="20" t="s">
+      <c r="B786" s="18" t="s">
         <v>1671</v>
       </c>
-      <c r="C786" s="20" t="s">
+      <c r="C786" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D786" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E786" s="20" t="s">
+      <c r="D786" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E786" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F786" s="20" t="s">
+      <c r="F786" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G786" s="20"/>
-      <c r="H786" s="20" t="s">
+      <c r="G786" s="18"/>
+      <c r="H786" s="18" t="s">
         <v>1639</v>
       </c>
-      <c r="I786" s="21">
+      <c r="I786" s="19">
         <v>85.462299999999999</v>
       </c>
-      <c r="J786" s="22">
+      <c r="J786" s="20">
         <v>4373</v>
       </c>
     </row>
@@ -31628,33 +31628,33 @@
         <v>8604</v>
       </c>
     </row>
-    <row r="789" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A789" s="19" t="s">
+    <row r="789" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A789" s="17" t="s">
         <v>1677</v>
       </c>
-      <c r="B789" s="20" t="s">
+      <c r="B789" s="18" t="s">
         <v>1678</v>
       </c>
-      <c r="C789" s="20" t="s">
+      <c r="C789" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D789" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E789" s="20" t="s">
+      <c r="D789" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E789" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F789" s="20" t="s">
+      <c r="F789" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G789" s="20"/>
-      <c r="H789" s="20" t="s">
+      <c r="G789" s="18"/>
+      <c r="H789" s="18" t="s">
         <v>1639</v>
       </c>
-      <c r="I789" s="21">
+      <c r="I789" s="19">
         <v>245.13149999999999</v>
       </c>
-      <c r="J789" s="22">
+      <c r="J789" s="20">
         <v>11969</v>
       </c>
     </row>
@@ -31748,33 +31748,33 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="793" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A793" s="19" t="s">
+    <row r="793" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A793" s="17" t="s">
         <v>1685</v>
       </c>
-      <c r="B793" s="20" t="s">
+      <c r="B793" s="18" t="s">
         <v>1686</v>
       </c>
-      <c r="C793" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D793" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E793" s="20" t="s">
+      <c r="C793" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D793" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E793" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F793" s="20" t="s">
+      <c r="F793" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G793" s="20"/>
-      <c r="H793" s="20" t="s">
+      <c r="G793" s="18"/>
+      <c r="H793" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I793" s="21">
+      <c r="I793" s="19">
         <v>19.941600000000001</v>
       </c>
-      <c r="J793" s="22">
+      <c r="J793" s="20">
         <v>682</v>
       </c>
     </row>
@@ -31868,33 +31868,33 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="797" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A797" s="19" t="s">
+    <row r="797" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="17" t="s">
         <v>1693</v>
       </c>
-      <c r="B797" s="20" t="s">
+      <c r="B797" s="18" t="s">
         <v>1694</v>
       </c>
-      <c r="C797" s="20" t="s">
+      <c r="C797" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D797" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E797" s="20" t="s">
+      <c r="D797" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E797" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F797" s="20" t="s">
+      <c r="F797" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G797" s="20"/>
-      <c r="H797" s="20" t="s">
+      <c r="G797" s="18"/>
+      <c r="H797" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I797" s="21">
+      <c r="I797" s="19">
         <v>71.646500000000003</v>
       </c>
-      <c r="J797" s="22">
+      <c r="J797" s="20">
         <v>2612</v>
       </c>
     </row>
@@ -31928,33 +31928,33 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="799" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A799" s="19" t="s">
+    <row r="799" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A799" s="17" t="s">
         <v>1698</v>
       </c>
-      <c r="B799" s="20" t="s">
+      <c r="B799" s="18" t="s">
         <v>1699</v>
       </c>
-      <c r="C799" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D799" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E799" s="20" t="s">
+      <c r="C799" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D799" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E799" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F799" s="20" t="s">
+      <c r="F799" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G799" s="20"/>
-      <c r="H799" s="20" t="s">
+      <c r="G799" s="18"/>
+      <c r="H799" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I799" s="21">
+      <c r="I799" s="19">
         <v>72.479399999999998</v>
       </c>
-      <c r="J799" s="22">
+      <c r="J799" s="20">
         <v>1767</v>
       </c>
     </row>
@@ -32018,63 +32018,63 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="802" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A802" s="19" t="s">
+    <row r="802" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A802" s="17" t="s">
         <v>1704</v>
       </c>
-      <c r="B802" s="20" t="s">
+      <c r="B802" s="18" t="s">
         <v>1705</v>
       </c>
-      <c r="C802" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D802" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E802" s="20" t="s">
+      <c r="C802" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D802" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E802" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F802" s="20" t="s">
+      <c r="F802" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G802" s="20"/>
-      <c r="H802" s="20" t="s">
+      <c r="G802" s="18"/>
+      <c r="H802" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I802" s="21">
+      <c r="I802" s="19">
         <v>28.627800000000001</v>
       </c>
-      <c r="J802" s="22">
+      <c r="J802" s="20">
         <v>925</v>
       </c>
     </row>
-    <row r="803" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A803" s="19" t="s">
+    <row r="803" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A803" s="17" t="s">
         <v>1706</v>
       </c>
-      <c r="B803" s="20" t="s">
+      <c r="B803" s="18" t="s">
         <v>1707</v>
       </c>
-      <c r="C803" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D803" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E803" s="20" t="s">
+      <c r="C803" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D803" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E803" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F803" s="20" t="s">
+      <c r="F803" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G803" s="20"/>
-      <c r="H803" s="20" t="s">
+      <c r="G803" s="18"/>
+      <c r="H803" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I803" s="21">
+      <c r="I803" s="19">
         <v>116.137</v>
       </c>
-      <c r="J803" s="22">
+      <c r="J803" s="20">
         <v>1886</v>
       </c>
     </row>
@@ -32228,93 +32228,93 @@
         <v>6985</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A809" s="2" t="s">
+    <row r="809" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A809" s="17" t="s">
         <v>1717</v>
       </c>
-      <c r="B809" s="8" t="s">
+      <c r="B809" s="18" t="s">
         <v>1718</v>
       </c>
-      <c r="C809" s="6" t="s">
+      <c r="C809" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D809" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E809" s="6" t="s">
+      <c r="D809" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E809" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F809" s="6" t="s">
+      <c r="F809" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G809" s="6"/>
-      <c r="H809" s="6" t="s">
+      <c r="G809" s="18"/>
+      <c r="H809" s="18" t="s">
         <v>1639</v>
       </c>
-      <c r="I809" s="4">
+      <c r="I809" s="19">
         <v>111.08410000000001</v>
       </c>
-      <c r="J809" s="7">
+      <c r="J809" s="20">
         <v>7588</v>
       </c>
     </row>
-    <row r="810" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A810" s="19" t="s">
+    <row r="810" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A810" s="17" t="s">
         <v>1719</v>
       </c>
-      <c r="B810" s="20" t="s">
+      <c r="B810" s="18" t="s">
         <v>1720</v>
       </c>
-      <c r="C810" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D810" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E810" s="20" t="s">
+      <c r="C810" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D810" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E810" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F810" s="20" t="s">
+      <c r="F810" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G810" s="20"/>
-      <c r="H810" s="20" t="s">
+      <c r="G810" s="18"/>
+      <c r="H810" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I810" s="21">
+      <c r="I810" s="19">
         <v>52.004199999999997</v>
       </c>
-      <c r="J810" s="22">
+      <c r="J810" s="20">
         <v>397</v>
       </c>
     </row>
-    <row r="811" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A811" s="19" t="s">
+    <row r="811" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A811" s="17" t="s">
         <v>1721</v>
       </c>
-      <c r="B811" s="20" t="s">
+      <c r="B811" s="18" t="s">
         <v>1722</v>
       </c>
-      <c r="C811" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D811" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E811" s="20" t="s">
+      <c r="C811" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D811" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E811" s="18" t="s">
         <v>1620</v>
       </c>
-      <c r="F811" s="20" t="s">
+      <c r="F811" s="18" t="s">
         <v>1621</v>
       </c>
-      <c r="G811" s="20"/>
-      <c r="H811" s="20" t="s">
+      <c r="G811" s="18"/>
+      <c r="H811" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="I811" s="21">
+      <c r="I811" s="19">
         <v>58.348100000000002</v>
       </c>
-      <c r="J811" s="22">
+      <c r="J811" s="20">
         <v>1656</v>
       </c>
     </row>
